--- a/Task 18.xlsx
+++ b/Task 18.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Lab\second-year-radioactivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FF12D-2E2C-4423-85E7-1B039AA9FAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C993B3DF-AE7D-41F4-98E0-59C7EF59A9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40462634-F1EB-4DD9-AC03-7201B9A97B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{40462634-F1EB-4DD9-AC03-7201B9A97B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Time / s</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Prelim</t>
+  </si>
+  <si>
+    <t>Error(Count)</t>
+  </si>
+  <si>
+    <t>Error(ln(Count))</t>
   </si>
 </sst>
 </file>
@@ -186,12 +193,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,6 +267,140 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38A4-4115-9211-88AB1B1BB76B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
@@ -284,124 +425,104 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$26:$A$40</c:f>
+              <c:f>Sheet1!$A$43:$A$56</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.84</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0089999999999999</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$26:$E$40</c:f>
+              <c:f>Sheet1!$E$43:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.268617245036406</c:v>
+                  <c:v>4.3567088266895917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.012377119192271</c:v>
+                  <c:v>12.18253786239651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7621739347977563</c:v>
+                  <c:v>11.621160844244752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.106754873845546</c:v>
+                  <c:v>11.100571684346141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8348107370626048</c:v>
+                  <c:v>10.510940669885711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.413940109291866</c:v>
+                  <c:v>10.031792812689051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.472082636899623</c:v>
+                  <c:v>9.0834156784025151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.260777307439861</c:v>
+                  <c:v>8.3327894684179586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.1171279902540032</c:v>
+                  <c:v>7.5098830611549134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4614690426438752</c:v>
+                  <c:v>6.8458798752640497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.37650812632622</c:v>
+                  <c:v>6.4329400927391793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5539334040258108</c:v>
+                  <c:v>5.4071717714601188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8141305318250662</c:v>
+                  <c:v>4.9972122737641147</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5134287461649825</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.4553211153577017</c:v>
+                  <c:v>4.6051701859880918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,7 +530,275 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7786-4525-8600-EFBA55C5130E}"/>
+              <c16:uniqueId val="{00000003-38A4-4115-9211-88AB1B1BB76B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$43:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.8317608663278477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441.98190008189249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333.81282180287803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257.31109575764509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.61158628851231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.79124643028851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.850945653200526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.482555780614035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.731721238442994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.659419433511783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.939927826679853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.933184523068078</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.165525060596439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-38A4-4115-9211-88AB1B1BB76B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$43:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.0872730599252201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4903492464789982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4089823766403886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3317520442473119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.242058091688937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1673005561027914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0138705477180858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8866571442445252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7404165853305793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6164632378965407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5363241300628712</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3253326152316616</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.23544453605186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1459660262893472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-38A4-4115-9211-88AB1B1BB76B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -421,164 +810,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524046536"/>
-        <c:axId val="524049160"/>
+        <c:axId val="297477624"/>
+        <c:axId val="297477952"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$26:$A$40</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.000</c:formatCode>
-                      <c:ptCount val="15"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.44</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.94399999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.44</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.94399999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>8.9999999999999993E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2.5999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.43</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.64</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.76</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.84</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.94399999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1.0009999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1.0089999999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$26:$B$40</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                      <c:pt idx="0">
-                        <c:v>578745</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8204</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>117</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>24508</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>342</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>246210</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>95998</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>28589</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9110</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4729</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1598</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>702</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>335</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>234</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7786-4525-8600-EFBA55C5130E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="1"/>
@@ -608,59 +843,56 @@
                 <c:xVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$26:$A$40</c15:sqref>
+                          <c15:sqref>Sheet1!$A$43:$A$56</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.000</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.44</c:v>
-                      </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.94399999999999995</c:v>
+                        <c:v>0.1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.44</c:v>
+                        <c:v>0.2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.94399999999999995</c:v>
+                        <c:v>0.31</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8.9999999999999993E-3</c:v>
+                        <c:v>0.42</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2.5999999999999999E-2</c:v>
+                        <c:v>0.51</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.43</c:v>
+                        <c:v>0.59</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.56000000000000005</c:v>
+                        <c:v>0.68</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.64</c:v>
+                        <c:v>0.76</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.76</c:v>
+                        <c:v>0.81</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.84</c:v>
+                        <c:v>0.9</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.94399999999999995</c:v>
+                        <c:v>0.99</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1.0009999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1.0089999999999999</c:v>
+                        <c:v>1.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -668,22 +900,22 @@
                 <c:yVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$26:$C$40</c15:sqref>
+                          <c15:sqref>Sheet1!$C$43:$C$56</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.000</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-7786-4525-8600-EFBA55C5130E}"/>
+                    <c16:uniqueId val="{00000001-38A4-4115-9211-88AB1B1BB76B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -719,57 +951,54 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$26:$A$40</c15:sqref>
+                          <c15:sqref>Sheet1!$A$43:$A$56</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.000</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.44</c:v>
-                      </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.94399999999999995</c:v>
+                        <c:v>0.1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.44</c:v>
+                        <c:v>0.2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.94399999999999995</c:v>
+                        <c:v>0.31</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8.9999999999999993E-3</c:v>
+                        <c:v>0.42</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2.5999999999999999E-2</c:v>
+                        <c:v>0.51</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.43</c:v>
+                        <c:v>0.59</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.56000000000000005</c:v>
+                        <c:v>0.68</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.64</c:v>
+                        <c:v>0.76</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.76</c:v>
+                        <c:v>0.81</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.84</c:v>
+                        <c:v>0.9</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.94399999999999995</c:v>
+                        <c:v>0.99</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1.0009999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1.0089999999999999</c:v>
+                        <c:v>1.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -779,21 +1008,21 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$26:$D$40</c15:sqref>
+                          <c15:sqref>Sheet1!$D$43:$D$56</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>30</c:v>
@@ -826,9 +1055,6 @@
                         <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
                         <c:v>30</c:v>
                       </c:pt>
                     </c:numCache>
@@ -837,7 +1063,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-7786-4525-8600-EFBA55C5130E}"/>
+                    <c16:uniqueId val="{00000002-38A4-4115-9211-88AB1B1BB76B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -846,7 +1072,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524046536"/>
+        <c:axId val="297477624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +1092,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -903,12 +1129,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524049160"/>
+        <c:crossAx val="297477952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524049160"/>
+        <c:axId val="297477952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524046536"/>
+        <c:crossAx val="297477624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1612,23 +1838,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579782</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D24A078-FCF3-4A23-99C7-3A76FC1FC606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386C6246-9E01-4A38-A9D8-4A56F1876E05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,13 +2172,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87887C28-DF82-48B1-BC7B-FEDCA68FC25F}">
-  <dimension ref="A2:H51"/>
+  <dimension ref="A2:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="12.7109375" style="12" customWidth="1"/>
@@ -1960,7 +2186,8 @@
     <col min="4" max="4" width="13.85546875" style="13" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="13" customWidth="1"/>
     <col min="6" max="6" width="18" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="16.85546875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="1.2">
@@ -2044,13 +2271,13 @@
     <row r="8" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>C7+C8</f>
-        <v>1.9990000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="B8" s="10">
         <v>9125</v>
       </c>
       <c r="C8" s="9">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="D8" s="11">
         <v>10</v>
@@ -2062,8 +2289,8 @@
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <f>A8+C9</f>
-        <v>2.9990000000000001</v>
+        <f t="shared" ref="A9:A15" si="1">A8+C9</f>
+        <v>2.99</v>
       </c>
       <c r="B9" s="10">
         <v>716</v>
@@ -2081,14 +2308,14 @@
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <f>A9+C10</f>
-        <v>3.9980000000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.9800000000000004</v>
       </c>
       <c r="B10" s="10">
         <v>110</v>
       </c>
       <c r="C10" s="9">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="D10" s="11">
         <v>10</v>
@@ -2100,8 +2327,8 @@
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <f>A10+C11</f>
-        <v>4.9980000000000002</v>
+        <f t="shared" si="1"/>
+        <v>4.9800000000000004</v>
       </c>
       <c r="B11" s="10">
         <v>91</v>
@@ -2119,14 +2346,14 @@
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <f>A11+C12</f>
-        <v>5.9969999999999999</v>
+        <f t="shared" si="1"/>
+        <v>5.9700000000000006</v>
       </c>
       <c r="B12" s="10">
         <v>76</v>
       </c>
       <c r="C12" s="9">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
@@ -2138,14 +2365,14 @@
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <f>A12+C13</f>
-        <v>6.0359999999999996</v>
+        <f t="shared" si="1"/>
+        <v>6.36</v>
       </c>
       <c r="B13" s="10">
         <v>86</v>
       </c>
       <c r="C13" s="9">
-        <v>3.9E-2</v>
+        <v>0.39</v>
       </c>
       <c r="D13" s="11">
         <v>10</v>
@@ -2157,14 +2384,14 @@
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
-        <f>A13+C14</f>
-        <v>6.0749999999999993</v>
+        <f t="shared" si="1"/>
+        <v>6.75</v>
       </c>
       <c r="B14" s="10">
         <v>74</v>
       </c>
       <c r="C14" s="9">
-        <v>3.9E-2</v>
+        <v>0.39</v>
       </c>
       <c r="D14" s="11">
         <v>10</v>
@@ -2176,14 +2403,14 @@
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <f>A14+C15</f>
-        <v>6.1149999999999993</v>
+        <f t="shared" si="1"/>
+        <v>7.15</v>
       </c>
       <c r="B15" s="10">
         <v>76</v>
       </c>
       <c r="C15" s="9">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="11">
         <v>10</v>
@@ -2213,8 +2440,7 @@
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <f>1.999+0.68</f>
-        <v>2.6790000000000003</v>
+        <v>2.67</v>
       </c>
       <c r="B17" s="10">
         <v>1573</v>
@@ -2230,8 +2456,7 @@
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <f>2.999+C16</f>
-        <v>3.6790000000000003</v>
+        <v>3.67</v>
       </c>
       <c r="B18" s="10">
         <v>132</v>
@@ -2247,7 +2472,7 @@
     </row>
     <row r="19" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>4.4989999999999997</v>
+        <v>4.49</v>
       </c>
       <c r="B19" s="10">
         <v>91</v>
@@ -2263,7 +2488,7 @@
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
-        <v>5.4980000000000002</v>
+        <v>5.49</v>
       </c>
       <c r="B20" s="10">
         <v>92</v>
@@ -2312,6 +2537,12 @@
       <c r="E25" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2335,41 +2566,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:8" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>0.44</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>8204</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17">
+      <c r="C27" s="14"/>
+      <c r="D27" s="16">
         <v>10</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <f>LN(B27)</f>
         <v>9.012377119192271</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+    <row r="28" spans="1:8" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>0.94399999999999995</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>117</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17">
+      <c r="C28" s="14"/>
+      <c r="D28" s="16">
         <v>10</v>
       </c>
-      <c r="E28" s="17">
-        <f t="shared" ref="E28:E48" si="1">LN(B28)</f>
+      <c r="E28" s="16">
+        <f t="shared" ref="E28:E48" si="2">LN(B28)</f>
         <v>4.7621739347977563</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2385,7 +2616,7 @@
         <v>30</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.106754873845546</v>
       </c>
       <c r="H29" s="10" t="s">
@@ -2404,7 +2635,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8348107370626048</v>
       </c>
       <c r="H30" s="10" t="s">
@@ -2422,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.413940109291866</v>
       </c>
     </row>
@@ -2437,11 +2668,11 @@
         <v>30</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.472082636899623</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>0.43</v>
       </c>
@@ -2452,11 +2683,11 @@
         <v>30</v>
       </c>
       <c r="E33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.260777307439861</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>0.56000000000000005</v>
       </c>
@@ -2467,11 +2698,11 @@
         <v>30</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1171279902540032</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>0.64</v>
       </c>
@@ -2482,11 +2713,11 @@
         <v>30</v>
       </c>
       <c r="E35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4614690426438752</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>0.76</v>
       </c>
@@ -2497,11 +2728,11 @@
         <v>30</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.37650812632622</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>0.84</v>
       </c>
@@ -2512,11 +2743,11 @@
         <v>30</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5539334040258108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>0.94399999999999995</v>
       </c>
@@ -2527,11 +2758,11 @@
         <v>30</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8141305318250662</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>1.0009999999999999</v>
       </c>
@@ -2542,11 +2773,11 @@
         <v>30</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5134287461649825</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>1.0089999999999999</v>
       </c>
@@ -2557,84 +2788,714 @@
         <v>30</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4553211153577017</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="D41" s="11">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="e">
+        <f>LN(B41)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="e">
+        <f t="shared" ref="E42:E61" si="3">LN(B42)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="B43" s="10">
+        <v>78</v>
+      </c>
+      <c r="D43" s="11">
         <v>30</v>
       </c>
-      <c r="E41" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="D42" s="11">
+      <c r="E43" s="11">
+        <f t="shared" si="3"/>
+        <v>4.3567088266895917</v>
+      </c>
+      <c r="F43" s="10">
+        <f>SQRT(B43)</f>
+        <v>8.8317608663278477</v>
+      </c>
+      <c r="G43" s="10">
+        <f>SQRT(E43)</f>
+        <v>2.0872730599252201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="17">
+        <v>0</v>
+      </c>
+      <c r="B44" s="10">
+        <v>195348</v>
+      </c>
+      <c r="D44" s="11">
         <v>30</v>
       </c>
-      <c r="E42" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="E44" s="11">
+        <f t="shared" si="3"/>
+        <v>12.18253786239651</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" ref="F44:F61" si="4">SQRT(B44)</f>
+        <v>441.98190008189249</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" ref="G44:G61" si="5">SQRT(E44)</f>
+        <v>3.4903492464789982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="B45" s="10">
+        <v>111431</v>
+      </c>
+      <c r="D45" s="11">
+        <v>30</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="3"/>
+        <v>11.621160844244752</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="4"/>
+        <v>333.81282180287803</v>
+      </c>
+      <c r="G45" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4089823766403886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="B46" s="10">
+        <v>66209</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11">
+        <v>30</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="3"/>
+        <v>11.100571684346141</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="4"/>
+        <v>257.31109575764509</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3317520442473119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="B47" s="10">
+        <v>36715</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11">
+        <v>30</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" si="3"/>
+        <v>10.510940669885711</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="4"/>
+        <v>191.61158628851231</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="5"/>
+        <v>3.242058091688937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="B48" s="10">
+        <v>22738</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11">
+        <v>30</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="3"/>
+        <v>10.031792812689051</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="4"/>
+        <v>150.79124643028851</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="5"/>
+        <v>3.1673005561027914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="B49" s="10">
+        <v>8808</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11">
+        <v>30</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="3"/>
+        <v>9.0834156784025151</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="4"/>
+        <v>93.850945653200526</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" si="5"/>
+        <v>3.0138705477180858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="B50" s="10">
+        <v>4158</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11">
+        <v>30</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" si="3"/>
+        <v>8.3327894684179586</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="4"/>
+        <v>64.482555780614035</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8866571442445252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="B51" s="10">
+        <v>1826</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11">
+        <v>30</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="3"/>
+        <v>7.5098830611549134</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" si="4"/>
+        <v>42.731721238442994</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="5"/>
+        <v>2.7404165853305793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="B52" s="10">
+        <v>940</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11">
+        <v>30</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" si="3"/>
+        <v>6.8458798752640497</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="4"/>
+        <v>30.659419433511783</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="5"/>
+        <v>2.6164632378965407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="B53" s="10">
+        <v>622</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11">
+        <v>30</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="3"/>
+        <v>6.4329400927391793</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="4"/>
+        <v>24.939927826679853</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="5"/>
+        <v>2.5363241300628712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="B54" s="10">
+        <v>223</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11">
+        <v>30</v>
+      </c>
+      <c r="E54" s="11">
+        <f t="shared" si="3"/>
+        <v>5.4071717714601188</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="4"/>
+        <v>14.933184523068078</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="5"/>
+        <v>2.3253326152316616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="B55" s="10">
+        <v>148</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11">
+        <v>30</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="3"/>
+        <v>4.9972122737641147</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="4"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="5"/>
+        <v>2.23544453605186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>1.07</v>
+      </c>
+      <c r="B56" s="10">
+        <v>100</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11">
+        <v>30</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" si="3"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="5"/>
+        <v>2.1459660262893472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B57" s="10">
+        <v>86</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11">
+        <v>30</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" si="3"/>
+        <v>4.4543472962535073</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="4"/>
+        <v>9.2736184954957039</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="5"/>
+        <v>2.1105324674720141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="B58" s="10">
+        <v>95</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11">
+        <v>30</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" si="3"/>
+        <v>4.5538768916005408</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="4"/>
+        <v>9.7467943448089631</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="5"/>
+        <v>2.1339814646806428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>1.32</v>
+      </c>
+      <c r="B59" s="10">
+        <v>79</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11">
+        <v>30</v>
+      </c>
+      <c r="E59" s="11">
+        <f t="shared" si="3"/>
+        <v>4.3694478524670215</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="4"/>
+        <v>8.8881944173155887</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="5"/>
+        <v>2.090322427872557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B60" s="10">
+        <v>64</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11">
+        <v>30</v>
+      </c>
+      <c r="E60" s="11">
+        <f t="shared" si="3"/>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="5"/>
+        <v>2.0393339803376178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="B61" s="10">
+        <v>71</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <f t="shared" si="3"/>
+        <v>4.2626798770413155</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" si="4"/>
+        <v>8.426149773176359</v>
+      </c>
+      <c r="G61" s="12">
+        <f t="shared" si="5"/>
+        <v>2.0646258443217538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7283DFD-B575-4C44-98B6-C8209B84D935}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>12.18253786239651</v>
+      </c>
+      <c r="C1">
+        <v>3.4903492464789982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>11.621160844244752</v>
+      </c>
+      <c r="C2">
+        <v>3.4089823766403886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>11.100571684346141</v>
+      </c>
+      <c r="C3">
+        <v>3.3317520442473119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="B4">
+        <v>10.510940669885711</v>
+      </c>
+      <c r="C4">
+        <v>3.242058091688937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="B5">
+        <v>10.031792812689051</v>
+      </c>
+      <c r="C5">
+        <v>3.1673005561027914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="B6">
+        <v>9.0834156784025151</v>
+      </c>
+      <c r="C6">
+        <v>3.0138705477180858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="B7">
+        <v>8.3327894684179586</v>
+      </c>
+      <c r="C7">
+        <v>2.8866571442445252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="B8">
+        <v>7.5098830611549134</v>
+      </c>
+      <c r="C8">
+        <v>2.7404165853305793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="B9">
+        <v>6.8458798752640497</v>
+      </c>
+      <c r="C9">
+        <v>2.6164632378965407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="B10">
+        <v>6.4329400927391793</v>
+      </c>
+      <c r="C10">
+        <v>2.5363241300628712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>5.4071717714601188</v>
+      </c>
+      <c r="C11">
+        <v>2.3253326152316616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="B12">
+        <v>4.9972122737641147</v>
+      </c>
+      <c r="C12">
+        <v>2.23544453605186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>1.07</v>
+      </c>
+      <c r="B13">
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="C13">
+        <v>2.1459660262893472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B14">
+        <v>4.4543472962535073</v>
+      </c>
+      <c r="C14">
+        <v>2.1105324674720141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="B15">
+        <v>4.5538768916005408</v>
+      </c>
+      <c r="C15">
+        <v>2.1339814646806428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1.32</v>
+      </c>
+      <c r="B16">
+        <v>4.3694478524670215</v>
+      </c>
+      <c r="C16">
+        <v>2.090322427872557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B17">
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="C17">
+        <v>2.0393339803376178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="B18">
+        <v>4.2626798770413155</v>
+      </c>
+      <c r="C18">
+        <v>2.0646258443217538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>